--- a/data/S2_Dataset.xlsx
+++ b/data/S2_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cecilia/Documents/PhD/African_Pygmies/Spatial analysis culture/My_data/Gen-cult-paper/Final version sept_22/Submission documents/NHB - MARCH 23/Revision july23/Submission Docs Oct23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E944C4-CE76-EC4D-93F4-70C493423615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06C6E48-C2CE-9245-B49D-B8060F24FB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="760" windowWidth="25920" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,13 +115,21 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Most likely two different words
-	-Pricop Bogdan</t>
+          <t xml:space="preserve">Most likely two different words
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Pricop Bogdan</t>
         </r>
       </text>
     </comment>
@@ -130,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="720">
   <si>
     <t>Trait</t>
   </si>
@@ -2460,9 +2468,6 @@
   </si>
   <si>
     <t>banza</t>
-  </si>
-  <si>
-    <t>The baka1272 and ngan1304 words seem shared. The relationship to the bila1255 is unclear. It’s quite likely the same but we cannot demonstrate this.</t>
   </si>
   <si>
     <t>Both versions probably use reduplication as a plural marker (Bertille 2017:117). The differences observed are consistent with the usual vowel alternations previously encountered.</t>
@@ -3482,6 +3487,12 @@
       </rPr>
       <t>). Otherwise the words seem to share the root.</t>
     </r>
+  </si>
+  <si>
+    <t>Fürniss, 2012; 2019; Turnbull et Chapman, 1992</t>
+  </si>
+  <si>
+    <t>The baka1272 and ngan1304 words seem shared. The relationship to the bila1255 is thought to be the same, especially given the exclusive use of the instrument in elephant hunt context.</t>
   </si>
 </sst>
 </file>
@@ -16113,8 +16124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -16164,7 +16175,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L1" s="62" t="s">
         <v>679</v>
@@ -16224,7 +16235,7 @@
         <v>15</v>
       </c>
       <c r="L3" s="61" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="28" customFormat="1" ht="15.75" customHeight="1">
@@ -16258,7 +16269,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="61" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
@@ -16354,7 +16365,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="61" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
@@ -16390,7 +16401,7 @@
         <v>15</v>
       </c>
       <c r="L8" s="61" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
@@ -16420,7 +16431,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="61" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -16454,7 +16465,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="61" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
@@ -16487,10 +16498,10 @@
         <v>20</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L11" s="61" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
@@ -16519,10 +16530,10 @@
         <v>20</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L12" s="61" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
@@ -16558,7 +16569,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="61" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="28" customFormat="1" ht="15.75" customHeight="1">
@@ -16594,7 +16605,7 @@
         <v>15</v>
       </c>
       <c r="L14" s="61" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
@@ -17270,7 +17281,7 @@
         <v>15</v>
       </c>
       <c r="L33" s="61" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
@@ -17304,7 +17315,7 @@
         <v>15</v>
       </c>
       <c r="L34" s="61" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
@@ -17338,7 +17349,7 @@
         <v>15</v>
       </c>
       <c r="L35" s="61" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
@@ -17370,7 +17381,7 @@
         <v>15</v>
       </c>
       <c r="L36" s="61" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
@@ -17402,7 +17413,7 @@
         <v>15</v>
       </c>
       <c r="L37" s="61" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
@@ -17434,7 +17445,7 @@
         <v>15</v>
       </c>
       <c r="L38" s="61" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
@@ -17542,7 +17553,7 @@
         <v>15</v>
       </c>
       <c r="L41" s="61" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
@@ -17576,7 +17587,7 @@
         <v>15</v>
       </c>
       <c r="L42" s="61" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
@@ -17610,7 +17621,7 @@
         <v>15</v>
       </c>
       <c r="L43" s="61" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
@@ -17644,7 +17655,7 @@
         <v>15</v>
       </c>
       <c r="L44" s="61" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
@@ -17902,7 +17913,7 @@
         <v>15</v>
       </c>
       <c r="L52" s="67" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1">
@@ -17930,7 +17941,7 @@
         <v>15</v>
       </c>
       <c r="L53" s="67" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1">
@@ -17958,7 +17969,7 @@
         <v>15</v>
       </c>
       <c r="L54" s="67" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1">
@@ -17991,10 +18002,10 @@
         <v>387</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L55" s="67" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1">
@@ -18021,7 +18032,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="35" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L56" s="61" t="s">
         <v>686</v>
@@ -18047,7 +18058,7 @@
       <c r="I57" s="39"/>
       <c r="J57" s="39"/>
       <c r="K57" s="20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L57" s="61" t="s">
         <v>686</v>
@@ -18084,7 +18095,7 @@
         <v>15</v>
       </c>
       <c r="L58" s="67" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1">
@@ -18112,7 +18123,7 @@
         <v>15</v>
       </c>
       <c r="L59" s="67" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1">
@@ -18137,10 +18148,10 @@
       <c r="I60" s="33"/>
       <c r="J60" s="33"/>
       <c r="K60" s="31" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L60" s="67" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1">
@@ -18178,7 +18189,7 @@
         <v>15</v>
       </c>
       <c r="L61" s="61" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1">
@@ -18214,7 +18225,7 @@
         <v>15</v>
       </c>
       <c r="L62" s="61" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1">
@@ -18250,7 +18261,7 @@
         <v>15</v>
       </c>
       <c r="L63" s="61" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1">
@@ -18275,10 +18286,10 @@
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
       <c r="K64" s="53" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L64" s="61" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="16.5" customHeight="1">
@@ -18306,7 +18317,7 @@
         <v>15</v>
       </c>
       <c r="L65" s="61" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1">
@@ -18414,7 +18425,7 @@
         <v>15</v>
       </c>
       <c r="L68" s="61" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1">
@@ -18450,7 +18461,7 @@
         <v>15</v>
       </c>
       <c r="L69" s="61" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1">
@@ -18478,7 +18489,7 @@
         <v>15</v>
       </c>
       <c r="L70" s="61" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1">
@@ -18504,7 +18515,7 @@
         <v>15</v>
       </c>
       <c r="L71" s="61" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" customHeight="1">
@@ -18530,7 +18541,7 @@
         <v>15</v>
       </c>
       <c r="L72" s="61" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" customHeight="1">
@@ -18566,7 +18577,7 @@
         <v>15</v>
       </c>
       <c r="L73" s="61" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1">
@@ -18655,10 +18666,10 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L76" s="61" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" customHeight="1">
@@ -18686,7 +18697,7 @@
         <v>15</v>
       </c>
       <c r="L77" s="61" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="16" customHeight="1">
@@ -18720,7 +18731,7 @@
         <v>15</v>
       </c>
       <c r="L78" s="61" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="79" spans="1:12" s="28" customFormat="1" ht="15.75" customHeight="1">
@@ -18750,7 +18761,7 @@
         <v>15</v>
       </c>
       <c r="L79" s="61" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1">
@@ -18829,7 +18840,7 @@
         <v>514</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D82" s="36" t="s">
         <v>30</v>
@@ -18854,7 +18865,7 @@
         <v>15</v>
       </c>
       <c r="L82" s="61" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.75" customHeight="1">
@@ -18881,13 +18892,13 @@
         <v>521</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>520</v>
+        <v>718</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>702</v>
+        <v>15</v>
       </c>
       <c r="L83" s="61" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" customHeight="1">
@@ -18914,12 +18925,14 @@
       <c r="I84" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="J84" s="39"/>
+      <c r="J84" s="14" t="s">
+        <v>517</v>
+      </c>
       <c r="K84" s="20" t="s">
         <v>15</v>
       </c>
       <c r="L84" s="61" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="15.75" customHeight="1">
@@ -18953,7 +18966,7 @@
         <v>15</v>
       </c>
       <c r="L85" s="61" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.75" customHeight="1">
@@ -18985,7 +18998,7 @@
         <v>15</v>
       </c>
       <c r="L86" s="61" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15.75" customHeight="1">
@@ -19021,7 +19034,7 @@
         <v>15</v>
       </c>
       <c r="L87" s="61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="15.75" customHeight="1">
@@ -19055,7 +19068,7 @@
         <v>15</v>
       </c>
       <c r="L88" s="61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.75" customHeight="1">
@@ -19089,7 +19102,7 @@
         <v>15</v>
       </c>
       <c r="L89" s="61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" customHeight="1">
@@ -19125,7 +19138,7 @@
         <v>15</v>
       </c>
       <c r="L90" s="61" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15.75" customHeight="1">
@@ -19159,7 +19172,7 @@
         <v>15</v>
       </c>
       <c r="L91" s="61" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15.75" customHeight="1">
@@ -28849,17 +28862,17 @@
     <row r="21" spans="1:4"/>
     <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="60" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="61" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="61" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
@@ -28869,7 +28882,7 @@
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="61" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="32" spans="1:4"/>
